--- a/addb.xlsx
+++ b/addb.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WINN/botnoi/botnoi2020/linesiit/botnoiengine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9D0B4-0696-F34A-BA4F-65787C27F82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{83D88FA6-DC06-AC44-A4E8-7C466C85C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="5380" windowWidth="28040" windowHeight="16760" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="21">
   <si>
     <t>ProductName</t>
   </si>
@@ -39,63 +48,60 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>แคปหมู</t>
-  </si>
-  <si>
     <t>QueryWord</t>
   </si>
   <si>
-    <t>แคปหมูแม่หญิงลำปาง</t>
-  </si>
-  <si>
-    <t>กรอบ อร่อย ไม่เหม็นหืน ห่อละ 100 บาท รวมจัดส่งทั่วไทย</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/maeyingporksnack</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/hoyixx2q0/image/upload/v1587305042/image_Uc217a79841540c1b0afe06312a885849_1587305039337.jpg.jpg</t>
-  </si>
-  <si>
-    <t>กระเป๋า</t>
-  </si>
-  <si>
     <t>https://shopee.co.th/Longchamp-Le-Pliage-Club-Tote-Bag-Size-S-%E0%B8%AB%E0%B8%B9%E0%B8%A2%E0%B8%B2%E0%B8%A7-i.18825871.3819094494?gclid=CjwKCAjwkPX0BRBKEiwA7THxiJDgwaHTv8uy4kprDYH5LAixw3MhCslfvEFqCfng-AxNQNmO8DjZyRoC0XQQAvD_BwE</t>
   </si>
   <si>
     <t>https://img.kaidee.com/prd/20190122/344816297/b/d76dd154-014c-4802-9263-9fcb9775e8f7.jpg</t>
   </si>
   <si>
-    <t>กระเป๋า Longchamp Neo Size M สี Chocolate ราคา 4,900 บาท รวมค่าส่ง ค่ะ</t>
-  </si>
-  <si>
-    <t>กระเป๋า Longchamp Neo</t>
-  </si>
-  <si>
-    <t>ส้มตำ</t>
-  </si>
-  <si>
-    <t>https://static.posttoday.com/media/content/2018/10/09/7E68135B4E03435881B219B331FB9169.jpg</t>
-  </si>
-  <si>
-    <t>ส้มตำบนใบตอง</t>
-  </si>
-  <si>
-    <t>ส้มตำ ไก่ย่าง ลาบหมู แซ่ป ๆ บางหว้า</t>
-  </si>
-  <si>
     <t>โทรสั่ง  0123456789</t>
+  </si>
+  <si>
+    <t>เทส</t>
+  </si>
+  <si>
+    <t>คำสั่ง</t>
+  </si>
+  <si>
+    <t>คำสั่งบอท</t>
+  </si>
+  <si>
+    <t>คำสั่ง2</t>
+  </si>
+  <si>
+    <t>บอท</t>
+  </si>
+  <si>
+    <t>เมนู</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>คำสั่ง  =  เรียกดูเมนูคำสั่ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> คำสั่ง</t>
+  </si>
+  <si>
+    <t>https://www.img.in.th/images/adfc334107c128d8373fedeeacf0a57e.gif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,15 +109,9 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFABB2BF"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -141,18 +141,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,20 +466,20 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="2" max="2" width="58.6171875" customWidth="1"/>
+    <col min="3" max="3" width="74.98828125" customWidth="1"/>
+    <col min="4" max="4" width="47.16796875" customWidth="1"/>
+    <col min="5" max="5" width="39.95703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -495,64 +494,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E57EE574-CC59-DA40-A830-33BA46694548}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{C9EF01BE-327D-1240-9084-3C318449914E}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{8F6152E5-71F3-0B43-9544-DCA39EA2F8CD}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{EA9A9C19-8912-0E46-B688-CF41ADD532BE}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{004B8458-1A7A-E047-8A2D-E5CE26FF525D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
